--- a/data/long_bre/P30-Urba-long_bre.xlsx
+++ b/data/long_bre/P30-Urba-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +599,37 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,43</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-26,27%</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,84%</t>
+          <t>-30,01%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-6,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-16,9%</t>
         </is>
       </c>
     </row>
@@ -609,22 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,64; -0,11</t>
+          <t>-12,53; -1,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 3,75</t>
+          <t>-7,22; 3,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-45,01; -0,47</t>
+          <t>-16,83; 3,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 18,24</t>
+          <t>-47,59; -5,34</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-26,58; 18,6</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-44,59; 13,26</t>
         </is>
       </c>
     </row>
@@ -632,27 +675,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,37</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>15,64%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4,83%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3,81%</t>
         </is>
       </c>
     </row>
@@ -665,22 +718,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 16,77</t>
+          <t>0,28; 15,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 8,55</t>
+          <t>-4,48; 8,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 36,13</t>
+          <t>-7,86; 11,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 16,88</t>
+          <t>0,51; 35,51</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-7,94; 17,23</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-13,87; 25,48</t>
         </is>
       </c>
     </row>
@@ -688,27 +751,37 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,59%</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,22%</t>
+          <t>-5,25%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-5,73%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13,46%</t>
         </is>
       </c>
     </row>
@@ -721,54 +794,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 3,72</t>
+          <t>-9,52; 5,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 4,54</t>
+          <t>-6,55; 4,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-33,77; 15,79</t>
+          <t>-3,04; 9,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 25,32</t>
+          <t>-28,69; 25,16</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-26,82; 21,72</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-12,49; 52,63</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-23,84%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +870,74 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 1,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 7,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,9; 5,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 41,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>-24,83%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,43%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4,02%</t>
         </is>
       </c>
     </row>
@@ -837,22 +950,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 14,53</t>
+          <t>-12,93; 0,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 10,1</t>
+          <t>-5,32; 7,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 34,4</t>
+          <t>-6,22; 8,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 20,6</t>
+          <t>-47,62; 3,9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-20,13; 38,68</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-24,7; 47,09</t>
         </is>
       </c>
     </row>
@@ -860,27 +983,37 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>7,49</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,25%</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-17,6%</t>
+          <t>15,66%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-2,26%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1026,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 7,11</t>
+          <t>-0,87; 16,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 1,29</t>
+          <t>-5,12; 10,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 29,73</t>
+          <t>-10,78; 8,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,2; 6,93</t>
+          <t>-1,79; 37,75</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-8,99; 20,62</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-17,89; 17,69</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-12,07</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-42,93%</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>-5,65%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-14,48%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1102,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-31,3; 0,38</t>
+          <t>-9,86; 5,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 13,93</t>
+          <t>-9,68; 2,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-75,12; 7,67</t>
+          <t>-8,72; 8,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-33,37; 96,36</t>
+          <t>-29,64; 22,28</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-35,11; 12,59</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-28,82; 41,2</t>
         </is>
       </c>
     </row>
@@ -976,27 +1135,37 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1178,74 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 22,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 19,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 50,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 44,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7,02</t>
+          <t>-12,37</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-9,22</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>39,35%</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-34,29%</t>
+          <t>-44,56%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>10,15%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>8,88%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1258,70 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 19,42</t>
+          <t>-31,83; 1,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-20,62; 2,36</t>
+          <t>-8,93; 13,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 171,84</t>
+          <t>-12,75; 15,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-61,56; 11,95</t>
+          <t>-75,13; 15,99</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-33,83; 87,47</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-46,13; 137,46</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-6,36</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-28,07%</t>
+          <t>20,26</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>10,32%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>12,16%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>57,65%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1334,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,7; -1,98</t>
+          <t>-10,9; 21,97</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 4,01</t>
+          <t>-7,4; 19,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,29; -9,48</t>
+          <t>2,13; 36,87</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 20,03</t>
+          <t>-17,05; 53,32</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-12,77; 44,35</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>5,32; 161,49</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1367,37 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>6,79</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>-8,49</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>-22,01</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>37,25%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-31,85%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-48,68%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1410,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,66; 12,45</t>
+          <t>-6,37; 18,5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 7,48</t>
+          <t>-18,78; 3,07</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,37; 26,4</t>
+          <t>-43,6; -2,53</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 14,46</t>
+          <t>-26,89; 149,23</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-57,74; 16,19</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-71,16; -6,73</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1443,37 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-3,14%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-13,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,34 +1486,359 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 4,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 0,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 17,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-26,44; 3,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-7,05</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>-1,71</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-30,29%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>0,2%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-6,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-11,96; -2,67</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-3,9; 4,02</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-8,74; 3,59</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-45,23; -13,11</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-15,71; 19,66</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-28,12; 17,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>7,54</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2,98</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>15,06%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>5,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 12,71</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 7,95</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 9,74</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>3,01; 27,21</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-2,68; 15,5</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-5,97; 21,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-3,03</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-1,84%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-13,1%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-4,46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-5,57; 4,48</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-6,97; 0,92</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-7,51; 4,32</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-18,73; 19,91</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-27,71; 4,33</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-24,16; 20,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
